--- a/Database/Finalize logic tree/Ford_F-150_Low engine oil pressure level warning.xlsx
+++ b/Database/Finalize logic tree/Ford_F-150_Low engine oil pressure level warning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87E795-6A7C-45DC-A49A-46A55E4740AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08637534-2874-4397-A638-3476EEB926DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="600" windowWidth="16500" windowHeight="12360" xr2:uid="{2A6DF898-9969-431F-86B9-A318CEF67053}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A6DF898-9969-431F-86B9-A318CEF67053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Node1</t>
   </si>
@@ -135,10 +135,16 @@
     <t>Problem: Does this problem occur every time when driven? (Please answer as: Yes, No)</t>
   </si>
   <si>
-    <t>Problem:Is problem more frequent when the engine is warmed up? (Please answer as: Yes, No)</t>
-  </si>
-  <si>
     <t>Do you hear abnormal engine tapping, rattling, noises? (Please answer as: Yes, No)</t>
+  </si>
+  <si>
+    <t>Problem:Is problem more frequent or once in awhile when the engine is warmed up?</t>
+  </si>
+  <si>
+    <t>Frequent</t>
+  </si>
+  <si>
+    <t>Once in a while</t>
   </si>
 </sst>
 </file>
@@ -495,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED5DD7-6C82-4565-9A4F-0546C6AFF15B}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -586,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -597,15 +603,15 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -613,10 +619,10 @@
     </row>
     <row r="11" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -624,7 +630,7 @@
     </row>
     <row r="12" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -635,7 +641,7 @@
     </row>
     <row r="13" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -646,7 +652,7 @@
     </row>
     <row r="14" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>

--- a/Database/Finalize logic tree/Ford_F-150_Low engine oil pressure level warning.xlsx
+++ b/Database/Finalize logic tree/Ford_F-150_Low engine oil pressure level warning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08637534-2874-4397-A638-3476EEB926DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD0CCD6-7F8B-48A7-B2F3-44664FFB78CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2A6DF898-9969-431F-86B9-A318CEF67053}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Node1</t>
   </si>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED5DD7-6C82-4565-9A4F-0546C6AFF15B}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,58 +606,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
